--- a/Users Loads22.xlsx
+++ b/Users Loads22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.103350334260508</v>
+        <v>0.4249510701108009</v>
       </c>
       <c r="C2" t="n">
-        <v>9.317003125362879</v>
+        <v>2.627375027430669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4385334880784316</v>
+        <v>0.2198840449293153</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.883957934010334</v>
+        <v>0.4639365002089015</v>
       </c>
       <c r="C3" t="n">
-        <v>4.049796677612003</v>
+        <v>4.095735149139635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1541238629130588</v>
+        <v>0.270117202834956</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.198363032750487</v>
+        <v>0.5134045324727331</v>
       </c>
       <c r="C4" t="n">
-        <v>6.471944441553244</v>
+        <v>11.71198311432659</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3988266357451112</v>
+        <v>0.166780246475171</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.795356503311115</v>
+        <v>0.6221949523268394</v>
       </c>
       <c r="C5" t="n">
-        <v>9.279302827060327</v>
+        <v>7.514066955749627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1730959441787855</v>
+        <v>0.2290445087018695</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.6434984186531</v>
+        <v>1.151089245949129</v>
       </c>
       <c r="C6" t="n">
-        <v>5.9143253214494</v>
+        <v>5.468093261045862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5765060911021083</v>
+        <v>0.1113380244440682</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.20190793535038</v>
+        <v>1.421729616835742</v>
       </c>
       <c r="C7" t="n">
-        <v>5.111861416306682</v>
+        <v>2.902842347911889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156931744671813</v>
+        <v>0.350419998867502</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.41383003149418</v>
+        <v>3.501027837046077</v>
       </c>
       <c r="C8" t="n">
-        <v>2.440053147986665</v>
+        <v>7.69766567409157</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1177713767385333</v>
+        <v>0.4186899718129055</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.11207116951169</v>
+        <v>3.571992674241037</v>
       </c>
       <c r="C9" t="n">
-        <v>8.8572898950151</v>
+        <v>5.867333689660378</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3742755054589093</v>
+        <v>0.166689692412384</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.45915506023674</v>
+        <v>3.998243015622647</v>
       </c>
       <c r="C10" t="n">
-        <v>4.160410890604441</v>
+        <v>10.28953384573714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1280416598307643</v>
+        <v>0.3114419225888844</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.85093748015885</v>
+        <v>4.032580457737126</v>
       </c>
       <c r="C11" t="n">
-        <v>7.155554657879845</v>
+        <v>3.504392635074386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1903887305449063</v>
+        <v>0.1996307155874497</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.16476358985244</v>
+        <v>5.492989383511851</v>
       </c>
       <c r="C12" t="n">
-        <v>4.479391433985783</v>
+        <v>5.961702687523875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3353304376962402</v>
+        <v>0.3942855592222995</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.48789442440565</v>
+        <v>5.52346271156048</v>
       </c>
       <c r="C13" t="n">
-        <v>5.669888350132573</v>
+        <v>7.403061122921282</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3180999729027427</v>
+        <v>0.4978482331855499</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.94296992510878</v>
+        <v>5.81562967620496</v>
       </c>
       <c r="C14" t="n">
-        <v>4.062770877382098</v>
+        <v>1.672104020521792</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2838860388519756</v>
+        <v>0.4825319902791657</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31.19606454536919</v>
+        <v>6.416029569743091</v>
       </c>
       <c r="C15" t="n">
-        <v>7.389464704315049</v>
+        <v>4.755652714784284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3286565527856152</v>
+        <v>0.2077755749879196</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.50351875531929</v>
+        <v>7.790091457392879</v>
       </c>
       <c r="C16" t="n">
-        <v>8.442687463395462</v>
+        <v>5.720749697861685</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2594094279278398</v>
+        <v>0.2044202125910219</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.73019639560299</v>
+        <v>8.427120245434404</v>
       </c>
       <c r="C17" t="n">
-        <v>8.362476086939816</v>
+        <v>5.282956199331594</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5132306855689984</v>
+        <v>0.420822398784092</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32.52802984572275</v>
+        <v>8.691971462939271</v>
       </c>
       <c r="C18" t="n">
-        <v>1.983209562264544</v>
+        <v>8.860000321945861</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1308626501765696</v>
+        <v>0.6242800334113875</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.1187867174346</v>
+        <v>9.425005152562051</v>
       </c>
       <c r="C19" t="n">
-        <v>2.769991339183369</v>
+        <v>2.798155182347899</v>
       </c>
       <c r="D19" t="n">
-        <v>0.322699116446899</v>
+        <v>0.6321381762033174</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>38.14734612717867</v>
+        <v>9.473367991523308</v>
       </c>
       <c r="C20" t="n">
-        <v>3.248206007820894</v>
+        <v>9.815367259775426</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2948921738101133</v>
+        <v>0.4574597793875542</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38.98508434877337</v>
+        <v>10.66587186636587</v>
       </c>
       <c r="C21" t="n">
-        <v>12.05626499404995</v>
+        <v>8.557489976163344</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3069442450937981</v>
+        <v>0.122077471682833</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39.82653185773417</v>
+        <v>10.92394501262979</v>
       </c>
       <c r="C22" t="n">
-        <v>5.352297197439159</v>
+        <v>4.755059162352912</v>
       </c>
       <c r="D22" t="n">
-        <v>0.203408813340176</v>
+        <v>0.1033130736893995</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>45.58814062561298</v>
+        <v>11.14238582712018</v>
       </c>
       <c r="C23" t="n">
-        <v>3.000455464839592</v>
+        <v>2.537826583808815</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1380061657568278</v>
+        <v>0.2960891162828558</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.57611680555117</v>
+        <v>11.40945239903923</v>
       </c>
       <c r="C24" t="n">
-        <v>4.114433923103447</v>
+        <v>5.716982783535355</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1627095171327377</v>
+        <v>0.4440247779810497</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>51.22512868180733</v>
+        <v>11.69804206787836</v>
       </c>
       <c r="C25" t="n">
-        <v>10.54254801768658</v>
+        <v>6.017439574456501</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2355510051514691</v>
+        <v>0.289944812588711</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>51.58888458749745</v>
+        <v>11.83194642687009</v>
       </c>
       <c r="C26" t="n">
-        <v>6.064312761137873</v>
+        <v>8.551514215206719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.415260941918897</v>
+        <v>0.4649306046444283</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.75385622225819</v>
+        <v>12.25041935158542</v>
       </c>
       <c r="C27" t="n">
-        <v>9.338805451225687</v>
+        <v>7.791805250307153</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6156323784857824</v>
+        <v>0.6335234974203392</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.14216854937762</v>
+        <v>14.85167266186367</v>
       </c>
       <c r="C28" t="n">
-        <v>9.645385803043396</v>
+        <v>4.764536185241495</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3191864988847496</v>
+        <v>0.438787943631392</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>53.52552921187846</v>
+        <v>15.55822207291876</v>
       </c>
       <c r="C29" t="n">
-        <v>5.686182006800607</v>
+        <v>6.90704919961698</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5269548784479117</v>
+        <v>0.3034485032757236</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57.25746437142922</v>
+        <v>17.03831214283102</v>
       </c>
       <c r="C30" t="n">
-        <v>5.131660325188777</v>
+        <v>7.181716295354713</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2820836380676017</v>
+        <v>0.3224190259202521</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>59.89727920258999</v>
+        <v>17.11655214176459</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04023960138164</v>
+        <v>4.462571060681497</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4251701864612841</v>
+        <v>0.3601082316901342</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>60.06694622724073</v>
+        <v>18.30053142338527</v>
       </c>
       <c r="C32" t="n">
-        <v>3.730024975660602</v>
+        <v>8.189026991976563</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1367584874028758</v>
+        <v>0.3924148487025992</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>61.33777578102823</v>
+        <v>18.99060449913962</v>
       </c>
       <c r="C33" t="n">
-        <v>10.66016242822747</v>
+        <v>6.177672715778519</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2523145733040226</v>
+        <v>0.4536610152082087</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>71.08180563153903</v>
+        <v>19.99123666826566</v>
       </c>
       <c r="C34" t="n">
-        <v>5.773437974370159</v>
+        <v>2.504667321253915</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2025804998509625</v>
+        <v>0.2286406464661597</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>71.44216618620014</v>
+        <v>20.1384902295511</v>
       </c>
       <c r="C35" t="n">
-        <v>7.51243331529689</v>
+        <v>8.966308406490926</v>
       </c>
       <c r="D35" t="n">
-        <v>0.468605575499097</v>
+        <v>0.5285116543548869</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.39175598181701</v>
+        <v>20.21461656546278</v>
       </c>
       <c r="C36" t="n">
-        <v>1.465561052688896</v>
+        <v>5.989079379653688</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1702682987792086</v>
+        <v>0.1867767473622514</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>80.06196001010844</v>
+        <v>20.28058656312082</v>
       </c>
       <c r="C37" t="n">
-        <v>8.622557529327786</v>
+        <v>7.897580129851537</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3250510880974493</v>
+        <v>0.312410368773538</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.73983154432733</v>
+        <v>20.33382876271343</v>
       </c>
       <c r="C38" t="n">
-        <v>4.268086070935439</v>
+        <v>5.36383310474625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5909671791515877</v>
+        <v>0.35988046731742</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82.10324762996942</v>
+        <v>20.44197203765327</v>
       </c>
       <c r="C39" t="n">
-        <v>4.259572552180232</v>
+        <v>6.20047863399606</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2208730714406993</v>
+        <v>0.5390539808335445</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>86.51948797244964</v>
+        <v>20.59944738688399</v>
       </c>
       <c r="C40" t="n">
-        <v>3.664880678432969</v>
+        <v>4.907797274555298</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3728345900449729</v>
+        <v>0.4997407077526218</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,1903 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>89.37857918445425</v>
+        <v>21.91995204807231</v>
       </c>
       <c r="C41" t="n">
-        <v>2.556503303428452</v>
+        <v>8.825060816711668</v>
       </c>
       <c r="D41" t="n">
-        <v>0.334309574737512</v>
+        <v>0.1008717119206352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>23.54892525466545</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.638466255049345</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3147425578677183</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>23.94317142414317</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.862956947061833</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2495218885765612</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>24.22565465103255</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.237610188985729</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1257656337943438</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24.67730663398333</v>
+      </c>
+      <c r="C45" t="n">
+        <v>9.888145080673247</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.3532616551295786</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>25.32999532291326</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.514433241993441</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5268646755458648</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>26.64811550290039</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5.902857763652269</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3307683399664331</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>27.02945791219415</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.800864546222904</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2663108696422602</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>27.03207332762188</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.271699274799156</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2031101169699921</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>27.13051871281212</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.512759495745334</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4341283615797275</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>27.29459933003877</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.406370472482516</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2772622670004598</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>27.61669113579567</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5.525621490654895</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.290549667443191</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>27.89029217532403</v>
+      </c>
+      <c r="C53" t="n">
+        <v>7.986716133287563</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.4691427576533398</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>30.54423325659489</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5.973999390636146</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.125717979738357</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>31.11324448108272</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.083808979998355</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.2286231340105675</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>31.44330875738436</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.726337586030103</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.1315381707478831</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>32.32016677181083</v>
+      </c>
+      <c r="C57" t="n">
+        <v>6.653506141972769</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.2695682523137427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>34.29800173144548</v>
+      </c>
+      <c r="C58" t="n">
+        <v>7.760912587877948</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3030694076673232</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>34.44838640769924</v>
+      </c>
+      <c r="C59" t="n">
+        <v>15.76066822687189</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.3100379653186296</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>35.99009550801252</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.121468302335096</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.4319746736548535</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>37.02039289939805</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6.656299723153533</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.4729031319029654</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>38.44157875204827</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.31329342855793</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2979263696433971</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>38.78726252180729</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.345063357680588</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.2049065085927935</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>40.11542970599397</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.907007550782202</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.4530966026470462</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>40.26619229723463</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.291901526461138</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.1363952002333646</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>40.30714295544414</v>
+      </c>
+      <c r="C66" t="n">
+        <v>6.69525078353151</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.2818595163404129</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>40.45046097402727</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.89669601708896</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.145433545661318</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>41.0651333974976</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5.920626192119229</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2430883126002521</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>41.8427722854357</v>
+      </c>
+      <c r="C69" t="n">
+        <v>7.766064436797759</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.3394950098595135</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>42.1917757094282</v>
+      </c>
+      <c r="C70" t="n">
+        <v>11.46646685407611</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.451353985409822</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>42.25335708652975</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.321090482104737</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4197578395912367</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>43.17362500497978</v>
+      </c>
+      <c r="C72" t="n">
+        <v>8.234438073895532</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.3194622843677914</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>43.77950834026633</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6.711425560638074</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2824316583914167</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>43.83020671419106</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.101694597498732</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.3290026518473271</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>44.12159259857785</v>
+      </c>
+      <c r="C75" t="n">
+        <v>3.890121061554545</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.1688133370905933</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>44.21654556431639</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.60374906980049</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.3998070443398934</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>44.39589084827691</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8.69932334508249</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.3483598716599415</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>45.26839694519352</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.005433574130078</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2258748045878285</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>45.27951403811173</v>
+      </c>
+      <c r="C79" t="n">
+        <v>11.62944207457397</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.3318987959510514</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>46.17039234155537</v>
+      </c>
+      <c r="C80" t="n">
+        <v>9.856360849952191</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.4401462111552148</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>47.05551061202963</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.085062170193758</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.2527088400872562</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>47.05903263607359</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5.289036447893972</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.1894586432063474</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>47.4157427894807</v>
+      </c>
+      <c r="C83" t="n">
+        <v>7.985602171887216</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.1581768276197824</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>48.69328465480228</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.593358918972541</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.2741013485680728</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>49.31473451116037</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.975046993464853</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.3053344376152078</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>49.34815024432548</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.935289014995122</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.3538163880229915</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>51.31086233459074</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.932564483166824</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.3379000013782828</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>52.17880452408084</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.987126907637965</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.6701631083164499</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>53.03951078888394</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.530785760021393</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3206317039382331</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>53.8535862691492</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.463417249987963</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.1619272258239441</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>53.94443988616059</v>
+      </c>
+      <c r="C91" t="n">
+        <v>9.005604565927836</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.4029152830244909</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>54.43763154359154</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6.024774593566039</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.468983687365396</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>54.78644292864686</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.353445149838383</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.3117662390408069</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>55.5491183904149</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.186032622702156</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.2246161313074777</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>56.08493736599079</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.605238658086449</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3325529760919046</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>56.54514684091997</v>
+      </c>
+      <c r="C96" t="n">
+        <v>10.09499958777104</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.287048893122942</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>56.68777144764363</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6.908004947805561</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.2004730404338604</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>57.27919782053384</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.038494959109026</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.2635196105075965</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>57.44198650995198</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.129861018721136</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.3017109558245069</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>58.11168940446073</v>
+      </c>
+      <c r="C100" t="n">
+        <v>8.440787685295593</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.1349321699396978</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>58.49556034696258</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.165250848499856</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.2822847102698472</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>58.56899127701732</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.673869481005331</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.08059273744387552</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>58.89833889387099</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.536754406935012</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.2661171576367832</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>59.17337580257924</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.60691070253189</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.4086843048243313</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>60.45527744767691</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.620842582697811</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.1688821242365268</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>63.07391569113421</v>
+      </c>
+      <c r="C106" t="n">
+        <v>8.302697254522515</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.2956891347757373</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>63.07981385234768</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.848870802824649</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.4873201636677643</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>63.28635054539106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.699411480538926</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4610151397998907</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>63.55672124443567</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.46588891946326</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.2736457746188972</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>63.56309487730321</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.95384280065018</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.3424863142921901</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>63.63368785123531</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3.835671703350142</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.2182765812093729</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>64.3948135934029</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.388015049483038</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.1561540760349398</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>64.49895075322483</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.18184409548228</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.1431701535580394</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>64.72509529281568</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.597689049436464</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.1568137603503171</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>65.0084656076712</v>
+      </c>
+      <c r="C115" t="n">
+        <v>8.314413677023353</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.3366243801772193</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>65.32032816354248</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.771386785486587</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.4862330399143664</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>65.84627791733047</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.859331347005926</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.3370051722461297</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>67.06207803106136</v>
+      </c>
+      <c r="C118" t="n">
+        <v>8.030023238138288</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4382155482041943</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>68.01866462046084</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.624202327287847</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4554060827464015</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>68.78578701876854</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.75822484836651</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.3845935701030933</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>69.18664074913609</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.925036931540919</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.2100789035244572</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>69.90083638918421</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.056638659118518</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.3028228821950299</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>69.98183299306442</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.250524832167798</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.2765089650519171</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>70.04600886037986</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.840784402967142</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.3865499269387912</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>70.07750522090241</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.196652561393957</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.2617288171942605</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>70.13232456411519</v>
+      </c>
+      <c r="C126" t="n">
+        <v>10.22733718242459</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.3924863201893605</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>71.00836861620589</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.382231476196717</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.3661303641142013</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>71.11313998892916</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.377463949030885</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.2775150894008856</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>71.31611460438371</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.926926566814683</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.3343488059196532</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>72.22172514064412</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.900794147980328</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.2014120050006692</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>72.24714028626653</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.84734562062428</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.3211188874458631</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>72.58135144722709</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.559523576389671</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.3083178474471838</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>73.7845310120549</v>
+      </c>
+      <c r="C133" t="n">
+        <v>4.420417551012896</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1966513835552725</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>73.94921918327792</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.76971414688957</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.3950100288952798</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>74.32913943366202</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.113398394340742</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.2015007885550791</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>74.56218668215743</v>
+      </c>
+      <c r="C136" t="n">
+        <v>7.183904328116663</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.639542540812652</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>75.75694541031514</v>
+      </c>
+      <c r="C137" t="n">
+        <v>7.534145708851685</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.4524027697421367</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>75.7810286256629</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.63589418297781</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2310682801304267</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>76.13904093000531</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.83483378162018</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2375865866902446</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>76.27363068788202</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.069895275274246</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1797309759051415</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>78.0986209646176</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.166707315806383</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.3530356481211079</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>78.34003810961509</v>
+      </c>
+      <c r="C142" t="n">
+        <v>8.691173887850248</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.2884349044664607</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>78.56618957679767</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.79626474565806</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.173193429367937</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>78.63232318312674</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.264843737512436</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.2369431697203223</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>78.64778072678246</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.362353783496357</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.3211383403245653</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>79.5241826645982</v>
+      </c>
+      <c r="C146" t="n">
+        <v>7.647508863125658</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.5264892657026958</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>79.87075019332535</v>
+      </c>
+      <c r="C147" t="n">
+        <v>7.868029872548764</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.378286050570695</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>80.06642171405791</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.793258394291817</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.3146020437855231</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>80.33059664457581</v>
+      </c>
+      <c r="C149" t="n">
+        <v>10.90426526923854</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.4023562292373493</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>80.49030302813813</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.702632994396458</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1375827696531916</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>80.61273657008961</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.064500302244914</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.6269593668615073</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>81.27630330672747</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.506045454795587</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4815826806467534</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>81.56357895056719</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.624710558975903</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.2309695148234629</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>82.38105807995025</v>
+      </c>
+      <c r="C154" t="n">
+        <v>10.16239039171813</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.3067193580693404</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>84.45513081809953</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.719041592347199</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.07489514058536498</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>85.74228790888934</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.685755026872775</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.1937629593632862</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>85.98936525238061</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.772694749329034</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.3778255547947797</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>87.03003189521264</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3.431990709438419</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.2189291832204132</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>87.36562280759364</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10.2587386193493</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.2275922122683664</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>87.87574011861203</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.640186601048184</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.4172334068321413</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>88.63815423844088</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.832592088926333</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1281056186380902</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>89.53688319410165</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.989868248498346</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.2092482305338438</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>89.92791923772285</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.693774875890683</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6669689168507678</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>90.72210819859879</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.856918609102114</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.2224156290376821</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>91.19940366876962</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.583246348444661</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.580386712704373</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>92.55600945888698</v>
+      </c>
+      <c r="C166" t="n">
+        <v>6.810564942339208</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3027277046038165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>92.61714648126798</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.720321459177321</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.3984434450199993</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>92.85083167846757</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.618988207360858</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.3389905151106047</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>93.27628624270422</v>
+      </c>
+      <c r="C169" t="n">
+        <v>3.308421858767626</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.1937007438503342</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>94.12889055066859</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.262159048191039</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.1532240991579437</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>95.04519734339242</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.965521274506674</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.281656339310225</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>95.30022956548802</v>
+      </c>
+      <c r="C172" t="n">
+        <v>7.247712660417114</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.5267670660567433</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>95.80971283770005</v>
+      </c>
+      <c r="C173" t="n">
+        <v>7.191590992739112</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.2530190871351234</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>97.77779787347491</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.95311754538252</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.2158157011869463</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>97.85349588404974</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.86958129459462</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4058927977089127</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>99.21239831972041</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7.546570400292175</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.3130574144919644</v>
       </c>
     </row>
   </sheetData>
